--- a/2021年1-2月金源消耗表（财务运营共享版）.xlsx
+++ b/2021年1-2月金源消耗表（财务运营共享版）.xlsx
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="232">
   <si>
     <t>媒体简称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -887,6 +887,10 @@
   </si>
   <si>
     <t>2021年2月</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消费扣除优惠券金额847.71</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1639,13 +1643,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomRight" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1791,10 +1796,10 @@
       </c>
       <c r="AJ1" s="18">
         <f>SUM(AB:AB)</f>
-        <v>18567198.83081957</v>
+        <v>18566375.811402094</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>229</v>
       </c>
@@ -1899,7 +1904,7 @@
       </c>
       <c r="AI2" s="11"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>229</v>
       </c>
@@ -2004,7 +2009,7 @@
       </c>
       <c r="AI3" s="11"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>229</v>
       </c>
@@ -2110,7 +2115,7 @@
       </c>
       <c r="AI4" s="11"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>229</v>
       </c>
@@ -2213,7 +2218,7 @@
       </c>
       <c r="AI5" s="11"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>229</v>
       </c>
@@ -2419,7 +2424,7 @@
       </c>
       <c r="AI7" s="11"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>229</v>
       </c>
@@ -2522,7 +2527,7 @@
       </c>
       <c r="AI8" s="11"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>229</v>
       </c>
@@ -2625,7 +2630,7 @@
       </c>
       <c r="AI9" s="11"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="68" t="s">
         <v>229</v>
       </c>
@@ -2728,7 +2733,7 @@
       </c>
       <c r="AI10" s="11"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="68" t="s">
         <v>229</v>
       </c>
@@ -2831,7 +2836,7 @@
       </c>
       <c r="AI11" s="11"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="68" t="s">
         <v>229</v>
       </c>
@@ -2934,7 +2939,7 @@
       </c>
       <c r="AI12" s="11"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="68" t="s">
         <v>229</v>
       </c>
@@ -3037,7 +3042,7 @@
       </c>
       <c r="AI13" s="11"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
         <v>229</v>
       </c>
@@ -3140,7 +3145,7 @@
       </c>
       <c r="AI14" s="11"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
         <v>229</v>
       </c>
@@ -3243,7 +3248,7 @@
       </c>
       <c r="AI15" s="11"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="68" t="s">
         <v>229</v>
       </c>
@@ -3346,7 +3351,7 @@
       </c>
       <c r="AI16" s="11"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="68" t="s">
         <v>229</v>
       </c>
@@ -3449,7 +3454,7 @@
       </c>
       <c r="AI17" s="11"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
         <v>229</v>
       </c>
@@ -3552,7 +3557,7 @@
       </c>
       <c r="AI18" s="11"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
         <v>229</v>
       </c>
@@ -3655,7 +3660,7 @@
       </c>
       <c r="AI19" s="11"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
         <v>229</v>
       </c>
@@ -3758,7 +3763,7 @@
       </c>
       <c r="AI20" s="11"/>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
         <v>229</v>
       </c>
@@ -3861,7 +3866,7 @@
       </c>
       <c r="AI21" s="11"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="68" t="s">
         <v>229</v>
       </c>
@@ -3964,7 +3969,7 @@
       </c>
       <c r="AI22" s="11"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68" t="s">
         <v>229</v>
       </c>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="AI23" s="11"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="68" t="s">
         <v>229</v>
       </c>
@@ -4170,7 +4175,7 @@
       </c>
       <c r="AI24" s="11"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68" t="s">
         <v>229</v>
       </c>
@@ -4273,7 +4278,7 @@
       </c>
       <c r="AI25" s="11"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="68" t="s">
         <v>229</v>
       </c>
@@ -4376,7 +4381,7 @@
       </c>
       <c r="AI26" s="11"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68" t="s">
         <v>229</v>
       </c>
@@ -4479,7 +4484,7 @@
       </c>
       <c r="AI27" s="11"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="68" t="s">
         <v>229</v>
       </c>
@@ -4582,7 +4587,7 @@
       </c>
       <c r="AI28" s="11"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68" t="s">
         <v>229</v>
       </c>
@@ -4685,7 +4690,7 @@
       </c>
       <c r="AI29" s="11"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="68" t="s">
         <v>229</v>
       </c>
@@ -4788,7 +4793,7 @@
       </c>
       <c r="AI30" s="11"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68" t="s">
         <v>229</v>
       </c>
@@ -4891,7 +4896,7 @@
       </c>
       <c r="AI31" s="11"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="68" t="s">
         <v>229</v>
       </c>
@@ -4994,7 +4999,7 @@
       </c>
       <c r="AI32" s="11"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="68" t="s">
         <v>229</v>
       </c>
@@ -5097,7 +5102,7 @@
       </c>
       <c r="AI33" s="11"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="68" t="s">
         <v>229</v>
       </c>
@@ -5200,7 +5205,7 @@
       </c>
       <c r="AI34" s="11"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="68" t="s">
         <v>229</v>
       </c>
@@ -5303,7 +5308,7 @@
       </c>
       <c r="AI35" s="11"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="68" t="s">
         <v>229</v>
       </c>
@@ -5406,7 +5411,7 @@
       </c>
       <c r="AI36" s="11"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="68" t="s">
         <v>229</v>
       </c>
@@ -5509,7 +5514,7 @@
       </c>
       <c r="AI37" s="11"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="68" t="s">
         <v>229</v>
       </c>
@@ -5612,7 +5617,7 @@
       </c>
       <c r="AI38" s="11"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="68" t="s">
         <v>229</v>
       </c>
@@ -5715,7 +5720,7 @@
       </c>
       <c r="AI39" s="11"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="68" t="s">
         <v>229</v>
       </c>
@@ -5818,7 +5823,7 @@
       </c>
       <c r="AI40" s="11"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="68" t="s">
         <v>229</v>
       </c>
@@ -5921,7 +5926,7 @@
       </c>
       <c r="AI41" s="11"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
         <v>229</v>
       </c>
@@ -6024,7 +6029,7 @@
       </c>
       <c r="AI42" s="11"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="68" t="s">
         <v>229</v>
       </c>
@@ -6127,7 +6132,7 @@
       </c>
       <c r="AI43" s="11"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="68" t="s">
         <v>229</v>
       </c>
@@ -6230,7 +6235,7 @@
       </c>
       <c r="AI44" s="11"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="68" t="s">
         <v>229</v>
       </c>
@@ -6333,7 +6338,7 @@
       </c>
       <c r="AI45" s="11"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="68" t="s">
         <v>229</v>
       </c>
@@ -6436,7 +6441,7 @@
       </c>
       <c r="AI46" s="11"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="68" t="s">
         <v>229</v>
       </c>
@@ -6539,7 +6544,7 @@
       </c>
       <c r="AI47" s="11"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="68" t="s">
         <v>229</v>
       </c>
@@ -6642,7 +6647,7 @@
       </c>
       <c r="AI48" s="11"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="68" t="s">
         <v>229</v>
       </c>
@@ -6745,7 +6750,7 @@
       </c>
       <c r="AI49" s="11"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="68" t="s">
         <v>229</v>
       </c>
@@ -6848,7 +6853,7 @@
       </c>
       <c r="AI50" s="11"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="68" t="s">
         <v>229</v>
       </c>
@@ -6951,7 +6956,7 @@
       </c>
       <c r="AI51" s="11"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="68" t="s">
         <v>229</v>
       </c>
@@ -7054,7 +7059,7 @@
       </c>
       <c r="AI52" s="11"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="68" t="s">
         <v>229</v>
       </c>
@@ -7157,7 +7162,7 @@
       </c>
       <c r="AI53" s="11"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="68" t="s">
         <v>229</v>
       </c>
@@ -7260,7 +7265,7 @@
       </c>
       <c r="AI54" s="11"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68" t="s">
         <v>229</v>
       </c>
@@ -7363,7 +7368,7 @@
       </c>
       <c r="AI55" s="11"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="68" t="s">
         <v>229</v>
       </c>
@@ -7466,7 +7471,7 @@
       </c>
       <c r="AI56" s="11"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="68" t="s">
         <v>229</v>
       </c>
@@ -7569,7 +7574,7 @@
       </c>
       <c r="AI57" s="11"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
         <v>229</v>
       </c>
@@ -7672,7 +7677,7 @@
       </c>
       <c r="AI58" s="11"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>229</v>
       </c>
@@ -7775,7 +7780,7 @@
       </c>
       <c r="AI59" s="11"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
         <v>229</v>
       </c>
@@ -7878,7 +7883,7 @@
       </c>
       <c r="AI60" s="11"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
         <v>229</v>
       </c>
@@ -7981,7 +7986,7 @@
       </c>
       <c r="AI61" s="11"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="68" t="s">
         <v>229</v>
       </c>
@@ -8081,7 +8086,7 @@
         <v>1.23</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="68" t="s">
         <v>229</v>
       </c>
@@ -8179,7 +8184,7 @@
       </c>
       <c r="AH63" s="11"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="68" t="s">
         <v>229</v>
       </c>
@@ -8274,7 +8279,7 @@
       </c>
       <c r="AH64" s="11"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="68" t="s">
         <v>229</v>
       </c>
@@ -8369,7 +8374,7 @@
       </c>
       <c r="AH65" s="11"/>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="68" t="s">
         <v>229</v>
       </c>
@@ -8458,7 +8463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="70" t="s">
         <v>230</v>
       </c>
@@ -8568,7 +8573,7 @@
       </c>
       <c r="AI67" s="30"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="70" t="s">
         <v>230</v>
       </c>
@@ -8675,7 +8680,7 @@
       </c>
       <c r="AI68" s="30"/>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="70" t="s">
         <v>230</v>
       </c>
@@ -8782,7 +8787,7 @@
       </c>
       <c r="AI69" s="30"/>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="70" t="s">
         <v>230</v>
       </c>
@@ -8889,7 +8894,7 @@
       </c>
       <c r="AI70" s="30"/>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="70" t="s">
         <v>230</v>
       </c>
@@ -9050,21 +9055,24 @@
         <v>0.03</v>
       </c>
       <c r="R72" s="48"/>
-      <c r="S72" s="46"/>
+      <c r="S72" s="46" t="s">
+        <v>231</v>
+      </c>
       <c r="T72" s="31">
         <v>33.750000000021828</v>
       </c>
       <c r="U72" s="31"/>
       <c r="V72" s="31">
-        <v>870.4</v>
+        <f>870.4-847.71</f>
+        <v>22.689999999999941</v>
       </c>
       <c r="W72" s="32">
         <f t="shared" si="11"/>
-        <v>-836.64999999997815</v>
+        <v>11.060000000021887</v>
       </c>
       <c r="X72" s="32">
         <f t="shared" si="15"/>
-        <v>845.04854368932035</v>
+        <v>22.029126213592175</v>
       </c>
       <c r="Y72" s="53">
         <v>0</v>
@@ -9074,15 +9082,15 @@
       </c>
       <c r="AA72" s="12">
         <f t="shared" si="13"/>
-        <v>822.3585436893203</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="12">
         <f t="shared" si="14"/>
-        <v>845.04854368932035</v>
+        <v>22.029126213592175</v>
       </c>
       <c r="AC72" s="31">
         <f t="shared" si="16"/>
-        <v>25.351456310679623</v>
+        <v>0.66087378640776606</v>
       </c>
       <c r="AD72" s="31">
         <v>22.69</v>
@@ -9099,11 +9107,11 @@
       </c>
       <c r="AH72" s="31">
         <f t="shared" si="18"/>
-        <v>870.4</v>
+        <v>22.689999999999941</v>
       </c>
       <c r="AI72" s="30"/>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
         <v>230</v>
       </c>
@@ -9210,7 +9218,7 @@
       </c>
       <c r="AI73" s="30"/>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="70" t="s">
         <v>230</v>
       </c>
@@ -9317,7 +9325,7 @@
       </c>
       <c r="AI74" s="30"/>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="70" t="s">
         <v>230</v>
       </c>
@@ -9424,7 +9432,7 @@
       </c>
       <c r="AI75" s="30"/>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="70" t="s">
         <v>230</v>
       </c>
@@ -9531,7 +9539,7 @@
       </c>
       <c r="AI76" s="30"/>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="70" t="s">
         <v>230</v>
       </c>
@@ -9638,7 +9646,7 @@
       </c>
       <c r="AI77" s="30"/>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="70" t="s">
         <v>230</v>
       </c>
@@ -9745,7 +9753,7 @@
       </c>
       <c r="AI78" s="30"/>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="70" t="s">
         <v>230</v>
       </c>
@@ -9852,7 +9860,7 @@
       </c>
       <c r="AI79" s="30"/>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="70" t="s">
         <v>230</v>
       </c>
@@ -9959,7 +9967,7 @@
       </c>
       <c r="AI80" s="30"/>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="70" t="s">
         <v>230</v>
       </c>
@@ -10066,7 +10074,7 @@
       </c>
       <c r="AI81" s="30"/>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="70" t="s">
         <v>230</v>
       </c>
@@ -10173,7 +10181,7 @@
       </c>
       <c r="AI82" s="30"/>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="70" t="s">
         <v>230</v>
       </c>
@@ -10280,7 +10288,7 @@
       </c>
       <c r="AI83" s="30"/>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="70" t="s">
         <v>230</v>
       </c>
@@ -10387,7 +10395,7 @@
       </c>
       <c r="AI84" s="30"/>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="70" t="s">
         <v>230</v>
       </c>
@@ -10494,7 +10502,7 @@
       </c>
       <c r="AI85" s="30"/>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="70" t="s">
         <v>230</v>
       </c>
@@ -10601,7 +10609,7 @@
       </c>
       <c r="AI86" s="30"/>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="70" t="s">
         <v>230</v>
       </c>
@@ -10708,7 +10716,7 @@
       </c>
       <c r="AI87" s="30"/>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="70" t="s">
         <v>230</v>
       </c>
@@ -10815,7 +10823,7 @@
       </c>
       <c r="AI88" s="30"/>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="70" t="s">
         <v>230</v>
       </c>
@@ -10922,7 +10930,7 @@
       </c>
       <c r="AI89" s="30"/>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="70" t="s">
         <v>230</v>
       </c>
@@ -11029,7 +11037,7 @@
       </c>
       <c r="AI90" s="30"/>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="70" t="s">
         <v>230</v>
       </c>
@@ -11136,7 +11144,7 @@
       </c>
       <c r="AI91" s="30"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="70" t="s">
         <v>230</v>
       </c>
@@ -11243,7 +11251,7 @@
       </c>
       <c r="AI92" s="30"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="70" t="s">
         <v>230</v>
       </c>
@@ -11350,7 +11358,7 @@
       </c>
       <c r="AI93" s="30"/>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="70" t="s">
         <v>230</v>
       </c>
@@ -11457,7 +11465,7 @@
       </c>
       <c r="AI94" s="30"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="70" t="s">
         <v>230</v>
       </c>
@@ -11564,7 +11572,7 @@
       </c>
       <c r="AI95" s="30"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="70" t="s">
         <v>230</v>
       </c>
@@ -11671,7 +11679,7 @@
       </c>
       <c r="AI96" s="30"/>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="70" t="s">
         <v>230</v>
       </c>
@@ -11778,7 +11786,7 @@
       </c>
       <c r="AI97" s="30"/>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="70" t="s">
         <v>230</v>
       </c>
@@ -11885,7 +11893,7 @@
       </c>
       <c r="AI98" s="30"/>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="70" t="s">
         <v>230</v>
       </c>
@@ -11992,7 +12000,7 @@
       </c>
       <c r="AI99" s="30"/>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="70" t="s">
         <v>230</v>
       </c>
@@ -12099,7 +12107,7 @@
       </c>
       <c r="AI100" s="30"/>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="70" t="s">
         <v>230</v>
       </c>
@@ -12206,7 +12214,7 @@
       </c>
       <c r="AI101" s="30"/>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="70" t="s">
         <v>230</v>
       </c>
@@ -12313,7 +12321,7 @@
       </c>
       <c r="AI102" s="30"/>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="70" t="s">
         <v>230</v>
       </c>
@@ -12420,7 +12428,7 @@
       </c>
       <c r="AI103" s="30"/>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="70" t="s">
         <v>230</v>
       </c>
@@ -12527,7 +12535,7 @@
       </c>
       <c r="AI104" s="30"/>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="70" t="s">
         <v>230</v>
       </c>
@@ -12634,7 +12642,7 @@
       </c>
       <c r="AI105" s="30"/>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="70" t="s">
         <v>230</v>
       </c>
@@ -12741,7 +12749,7 @@
       </c>
       <c r="AI106" s="30"/>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="70" t="s">
         <v>230</v>
       </c>
@@ -12848,7 +12856,7 @@
       </c>
       <c r="AI107" s="30"/>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="70" t="s">
         <v>230</v>
       </c>
@@ -12955,7 +12963,7 @@
       </c>
       <c r="AI108" s="30"/>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="70" t="s">
         <v>230</v>
       </c>
@@ -13062,7 +13070,7 @@
       </c>
       <c r="AI109" s="30"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="70" t="s">
         <v>230</v>
       </c>
@@ -13169,7 +13177,7 @@
       </c>
       <c r="AI110" s="30"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="70" t="s">
         <v>230</v>
       </c>
@@ -13276,7 +13284,7 @@
       </c>
       <c r="AI111" s="30"/>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="70" t="s">
         <v>230</v>
       </c>
@@ -13383,7 +13391,7 @@
       </c>
       <c r="AI112" s="30"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="70" t="s">
         <v>230</v>
       </c>
@@ -13490,7 +13498,7 @@
       </c>
       <c r="AI113" s="30"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="70" t="s">
         <v>230</v>
       </c>
@@ -13597,7 +13605,7 @@
       </c>
       <c r="AI114" s="30"/>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="70" t="s">
         <v>230</v>
       </c>
@@ -13704,7 +13712,7 @@
       </c>
       <c r="AI115" s="30"/>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="70" t="s">
         <v>230</v>
       </c>
@@ -13811,7 +13819,7 @@
       </c>
       <c r="AI116" s="30"/>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="70" t="s">
         <v>230</v>
       </c>
@@ -13918,7 +13926,7 @@
       </c>
       <c r="AI117" s="30"/>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="70" t="s">
         <v>230</v>
       </c>
@@ -14025,7 +14033,7 @@
       </c>
       <c r="AI118" s="30"/>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="70" t="s">
         <v>230</v>
       </c>
@@ -14132,7 +14140,7 @@
       </c>
       <c r="AI119" s="30"/>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="70" t="s">
         <v>230</v>
       </c>
@@ -14239,7 +14247,7 @@
       </c>
       <c r="AI120" s="30"/>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="70" t="s">
         <v>230</v>
       </c>
@@ -14346,7 +14354,7 @@
       </c>
       <c r="AI121" s="30"/>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="70" t="s">
         <v>230</v>
       </c>
@@ -14453,7 +14461,7 @@
       </c>
       <c r="AI122" s="30"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="70" t="s">
         <v>230</v>
       </c>
@@ -14560,7 +14568,7 @@
       </c>
       <c r="AI123" s="30"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="70" t="s">
         <v>230</v>
       </c>
@@ -14667,7 +14675,7 @@
       </c>
       <c r="AI124" s="30"/>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="70" t="s">
         <v>230</v>
       </c>
@@ -14774,7 +14782,7 @@
       </c>
       <c r="AI125" s="30"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="70" t="s">
         <v>230</v>
       </c>
@@ -14881,7 +14889,7 @@
       </c>
       <c r="AI126" s="30"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="70" t="s">
         <v>230</v>
       </c>
@@ -14988,7 +14996,7 @@
       </c>
       <c r="AI127" s="30"/>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="70" t="s">
         <v>230</v>
       </c>
@@ -15095,7 +15103,7 @@
       </c>
       <c r="AI128" s="30"/>
     </row>
-    <row r="129" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="70" t="s">
         <v>230</v>
       </c>
@@ -15197,7 +15205,7 @@
       <c r="AH129" s="30"/>
       <c r="AI129" s="30"/>
     </row>
-    <row r="130" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="70" t="s">
         <v>230</v>
       </c>
@@ -15302,6 +15310,13 @@
       <c r="AI130" s="30"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AJ130">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="北京轻松筹网络科技有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -15822,22 +15837,22 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="6">
         <f>SUMIFS(客户表!AB:AB,客户表!A:A,媒体表!G7,客户表!K:K,媒体表!B7,客户表!O:O,媒体表!H7)</f>
-        <v>254607.14129731242</v>
+        <v>253784.12187983672</v>
       </c>
       <c r="S7" s="6">
         <v>0</v>
       </c>
       <c r="T7" s="6">
         <f t="shared" ref="T7:T9" si="6">IF(OR(P7="返现",P7="折现"),(R7-I7+L7)/1.06,IF(P7="返货",(R7-I7+L7-M7)/1.06,(R7-I7)/1.06))</f>
-        <v>52386.338205011598</v>
+        <v>51609.904792298665</v>
       </c>
       <c r="U7" s="6">
         <f t="shared" ref="U7:U9" si="7">T7-S7/1.06</f>
-        <v>52386.338205011598</v>
+        <v>51609.904792298665</v>
       </c>
       <c r="V7" s="7">
         <f t="shared" ref="V7:V9" si="8">IFERROR(U7/R7,0)</f>
-        <v>0.20575360902323825</v>
+        <v>0.20336144125177083</v>
       </c>
       <c r="W7" s="6"/>
     </row>

--- a/2021年1-2月金源消耗表（财务运营共享版）.xlsx
+++ b/2021年1-2月金源消耗表（财务运营共享版）.xlsx
@@ -11,8 +11,8 @@
     <sheet name="媒体表" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AJ$130</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$W$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">客户表!$A$1:$AJ$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">媒体表!$A$1:$X$9</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -143,7 +143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="234">
   <si>
     <t>媒体简称</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -891,6 +891,14 @@
   </si>
   <si>
     <t>点击消费扣除优惠券金额847.71</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京多彩</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京多彩互动广告有限公司-广东轻松保保险经纪有限公司</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1644,13 +1652,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AJ130"/>
+  <dimension ref="A1:AJ132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F161" sqref="F161"/>
+      <selection pane="bottomRight" activeCell="W139" sqref="W139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -1796,7 +1804,7 @@
       </c>
       <c r="AJ1" s="18">
         <f>SUM(AB:AB)</f>
-        <v>18566375.811402094</v>
+        <v>18566375.81140209</v>
       </c>
     </row>
     <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.25">
@@ -2378,16 +2386,14 @@
         <v>50170.350000000035</v>
       </c>
       <c r="U7" s="12"/>
-      <c r="V7" s="12">
-        <v>50136.600000000013</v>
-      </c>
+      <c r="V7" s="12"/>
       <c r="W7" s="13">
         <f t="shared" si="0"/>
-        <v>33.750000000021828</v>
+        <v>50170.350000000035</v>
       </c>
       <c r="X7" s="13">
         <f t="shared" si="1"/>
-        <v>48676.310679611663</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="52">
         <v>0</v>
@@ -2399,28 +2405,28 @@
       </c>
       <c r="AB7" s="12">
         <f t="shared" si="6"/>
-        <v>48676.310679611663</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="16">
         <f t="shared" si="3"/>
-        <v>1460.2893203883505</v>
+        <v>0</v>
       </c>
       <c r="AD7" s="12">
-        <v>50136.600000000013</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="52">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="AF7" s="17">
         <f t="shared" si="7"/>
-        <v>3509.5620000000013</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="58">
         <v>0</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" si="4"/>
-        <v>50136.600000000013</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="11"/>
     </row>
@@ -9002,31 +9008,29 @@
       <c r="AI71" s="30"/>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A72" s="70" t="s">
-        <v>230</v>
+      <c r="A72" s="68" t="s">
+        <v>213</v>
       </c>
       <c r="B72" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C72" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D72" s="46" t="s">
+      <c r="D72" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="46" t="s">
+      <c r="E72" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="F72" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F72" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>60</v>
-      </c>
-      <c r="H72" s="46">
-        <v>162</v>
-      </c>
-      <c r="I72" s="46" t="s">
+      <c r="H72" s="41"/>
+      <c r="I72" s="41" t="s">
         <v>12</v>
       </c>
       <c r="J72" s="41" t="str">
@@ -9034,82 +9038,75 @@
         <v>百度</v>
       </c>
       <c r="K72" s="41" t="str">
-        <f>VLOOKUP(I72,媒体表!$A$7:$D$9,2,0)</f>
-        <v>百度-金源广告</v>
+        <f>VLOOKUP(I72,媒体表!A:F,2,0)</f>
+        <v>百度</v>
       </c>
       <c r="L72" s="41" t="str">
         <f>VLOOKUP(I72,媒体表!A:F,6,0)</f>
         <v>金源广告</v>
       </c>
-      <c r="M72" s="46" t="s">
+      <c r="M72" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="N72" s="46"/>
-      <c r="O72" s="46" t="s">
+      <c r="N72" s="41"/>
+      <c r="O72" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="P72" s="46" t="s">
+      <c r="P72" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="Q72" s="47">
+      <c r="Q72" s="44">
         <v>0.03</v>
       </c>
-      <c r="R72" s="48"/>
-      <c r="S72" s="46" t="s">
-        <v>231</v>
-      </c>
-      <c r="T72" s="31">
-        <v>33.750000000021828</v>
-      </c>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31">
-        <f>870.4-847.71</f>
-        <v>22.689999999999941</v>
-      </c>
-      <c r="W72" s="32">
+      <c r="R72" s="43"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12">
+        <v>50136.600000000013</v>
+      </c>
+      <c r="W72" s="13">
         <f t="shared" si="11"/>
-        <v>11.060000000021887</v>
-      </c>
-      <c r="X72" s="32">
+        <v>-50136.600000000013</v>
+      </c>
+      <c r="X72" s="13">
         <f t="shared" si="15"/>
-        <v>22.029126213592175</v>
-      </c>
-      <c r="Y72" s="53">
-        <v>0</v>
-      </c>
-      <c r="Z72" s="31">
-        <v>0</v>
-      </c>
+        <v>48676.310679611663</v>
+      </c>
+      <c r="Y72" s="52">
+        <v>0</v>
+      </c>
+      <c r="Z72" s="11"/>
       <c r="AA72" s="12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB72" s="12">
         <f t="shared" si="14"/>
-        <v>22.029126213592175</v>
-      </c>
-      <c r="AC72" s="31">
+        <v>48676.310679611663</v>
+      </c>
+      <c r="AC72" s="16">
         <f t="shared" si="16"/>
-        <v>0.66087378640776606</v>
-      </c>
-      <c r="AD72" s="31">
-        <v>22.69</v>
-      </c>
-      <c r="AE72" s="53">
+        <v>1460.2893203883505</v>
+      </c>
+      <c r="AD72" s="12">
+        <v>50136.600000000013</v>
+      </c>
+      <c r="AE72" s="52">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="AF72" s="31">
+      <c r="AF72" s="17">
         <f t="shared" si="17"/>
-        <v>1.5883000000000003</v>
-      </c>
-      <c r="AG72" s="53">
-        <v>0</v>
-      </c>
-      <c r="AH72" s="31">
+        <v>3509.5620000000013</v>
+      </c>
+      <c r="AG72" s="58">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="12">
         <f t="shared" si="18"/>
-        <v>22.689999999999941</v>
-      </c>
-      <c r="AI72" s="30"/>
+        <v>50136.600000000013</v>
+      </c>
+      <c r="AI72" s="11"/>
     </row>
     <row r="73" spans="1:35" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="70" t="s">
@@ -15309,11 +15306,231 @@
       <c r="AH130" s="30"/>
       <c r="AI130" s="30"/>
     </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A131" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B131" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D131" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E131" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="F131" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="G131" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H131" s="46">
+        <v>162</v>
+      </c>
+      <c r="I131" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J131" s="41" t="str">
+        <f>VLOOKUP(I131,媒体表!A:D,3,0)</f>
+        <v>百度</v>
+      </c>
+      <c r="K131" s="41" t="str">
+        <f>VLOOKUP(I131,媒体表!$A$7:$D$9,2,0)</f>
+        <v>百度-金源广告</v>
+      </c>
+      <c r="L131" s="41" t="str">
+        <f>VLOOKUP(I131,媒体表!A:F,6,0)</f>
+        <v>金源广告</v>
+      </c>
+      <c r="M131" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N131" s="46"/>
+      <c r="O131" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="P131" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q131" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="R131" s="48"/>
+      <c r="S131" s="46"/>
+      <c r="T131" s="31">
+        <v>50170.350000000035</v>
+      </c>
+      <c r="U131" s="31"/>
+      <c r="V131" s="31"/>
+      <c r="W131" s="32">
+        <f t="shared" ref="W131:W132" si="20">T131+U131-V131</f>
+        <v>50170.350000000035</v>
+      </c>
+      <c r="X131" s="32">
+        <f t="shared" ref="X131:X132" si="21">IF(P131="折扣",V131*Q131,IF(P131="返现",V131,V131/(1+Q131+AG131)))</f>
+        <v>0</v>
+      </c>
+      <c r="Y131" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z131" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA131" s="12">
+        <f t="shared" ref="AA131:AA132" si="22">IF(X131-AD131&lt;=0,0,IF(P131="返现",MAX(X131-AC131-AD131,0),MAX(X131-AD131,0)))</f>
+        <v>0</v>
+      </c>
+      <c r="AB131" s="12">
+        <f t="shared" ref="AB131:AB132" si="23">X131+Z131</f>
+        <v>0</v>
+      </c>
+      <c r="AC131" s="31">
+        <f t="shared" ref="AC131:AC132" si="24">IF(P131="返现",X131*Q131,V131-X131)</f>
+        <v>0</v>
+      </c>
+      <c r="AD131" s="31">
+        <v>0</v>
+      </c>
+      <c r="AE131" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF131" s="31">
+        <f t="shared" ref="AF131:AF132" si="25">AD131*AE131</f>
+        <v>0</v>
+      </c>
+      <c r="AG131" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH131" s="31">
+        <f t="shared" ref="AH131:AH132" si="26">V131/(1+AG131)</f>
+        <v>0</v>
+      </c>
+      <c r="AI131" s="30"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A132" s="70" t="s">
+        <v>216</v>
+      </c>
+      <c r="B132" s="46" t="s">
+        <v>232</v>
+      </c>
+      <c r="C132" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="D132" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="E132" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="F132" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="G132" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H132" s="46">
+        <v>162</v>
+      </c>
+      <c r="I132" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="J132" s="41" t="str">
+        <f>VLOOKUP(I132,媒体表!A:D,3,0)</f>
+        <v>百度</v>
+      </c>
+      <c r="K132" s="41" t="str">
+        <f>VLOOKUP(I132,媒体表!$A$7:$D$9,2,0)</f>
+        <v>百度-金源广告</v>
+      </c>
+      <c r="L132" s="41" t="str">
+        <f>VLOOKUP(I132,媒体表!A:F,6,0)</f>
+        <v>金源广告</v>
+      </c>
+      <c r="M132" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="N132" s="46"/>
+      <c r="O132" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="P132" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q132" s="47">
+        <v>0.03</v>
+      </c>
+      <c r="R132" s="48"/>
+      <c r="S132" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="T132" s="31">
+        <v>-50136.600000000013</v>
+      </c>
+      <c r="U132" s="31"/>
+      <c r="V132" s="31">
+        <f t="shared" ref="V131:V132" si="27">870.4-847.71</f>
+        <v>22.689999999999941</v>
+      </c>
+      <c r="W132" s="32">
+        <f t="shared" si="20"/>
+        <v>-50159.290000000015</v>
+      </c>
+      <c r="X132" s="32">
+        <f t="shared" si="21"/>
+        <v>22.029126213592175</v>
+      </c>
+      <c r="Y132" s="53">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="31">
+        <v>0</v>
+      </c>
+      <c r="AA132" s="12">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB132" s="12">
+        <f t="shared" si="23"/>
+        <v>22.029126213592175</v>
+      </c>
+      <c r="AC132" s="31">
+        <f t="shared" si="24"/>
+        <v>0.66087378640776606</v>
+      </c>
+      <c r="AD132" s="31">
+        <v>22.69</v>
+      </c>
+      <c r="AE132" s="53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF132" s="31">
+        <f t="shared" si="25"/>
+        <v>1.5883000000000003</v>
+      </c>
+      <c r="AG132" s="53">
+        <v>0</v>
+      </c>
+      <c r="AH132" s="31">
+        <f t="shared" si="26"/>
+        <v>22.689999999999941</v>
+      </c>
+      <c r="AI132" s="30"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AJ130">
-    <filterColumn colId="4">
+  <autoFilter ref="A1:AJ132">
+    <filterColumn colId="8">
       <filters>
-        <filter val="北京轻松筹网络科技有限公司"/>
+        <filter val="百度时代网络技术（北京）有限公司-金源"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="12">
+      <filters>
+        <filter val="广东轻松保保险经纪有限公司"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -15325,14 +15542,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="B29" sqref="B29"/>
+      <selection pane="bottomRight" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="11.5" x14ac:dyDescent="0.25"/>
@@ -15643,7 +15861,7 @@
       </c>
       <c r="W4" s="6"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -15714,7 +15932,7 @@
       </c>
       <c r="W5" s="6"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -16018,6 +16236,13 @@
       <c r="T14" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:X9">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="百度时代网络技术（北京）有限公司"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
